--- a/results/multilabel_native.xlsx
+++ b/results/multilabel_native.xlsx
@@ -531,27 +531,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.518 (0.462 Â± 0.033)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.639 (0.567 Â± 0.037)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.711 (0.677 Â± 0.016)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.758 (0.728 Â± 0.020)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.248 (0.234 Â± 0.009)</t>
         </is>
       </c>
     </row>
@@ -595,27 +595,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.739 (0.690 Â± 0.026)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.658 (0.625 Â± 0.020)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.807 (0.775 Â± 0.015)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.816 (0.791 Â± 0.016)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.630 (0.597 Â± 0.019)</t>
         </is>
       </c>
     </row>
@@ -851,27 +851,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-1.000 (-1.000 Â± 0.000)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-1.000 (-1.000 Â± 0.000)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-1.000 (-1.000 Â± 0.000)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-1.000 (-1.000 Â± 0.000)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-1.000 (-1.000 Â± 0.000)</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1084,27 +1084,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:27 (00:00:38 Â± 00:00:10)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:48 (00:02:20 Â± 00:00:32)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:03:15 (00:03:49 Â± 00:00:36)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:07 (00:01:27 Â± 00:00:19)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:52 (00:01:07 Â± 00:00:15)</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1148,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:57 (00:05:01 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:56 (00:05:01 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:54 (00:05:01 Â± 00:00:03)</t>
         </is>
       </c>
     </row>
@@ -1404,27 +1404,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00:00:20 (00:00:23 Â± 00:00:01)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:26 (00:00:30 Â± 00:00:02)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:29 (00:00:33 Â± 00:00:01)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>00:00:35 (00:00:40 Â± 00:00:02)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>00:00:23 (00:00:24 Â± 00:00:01)</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1637,27 +1637,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:10 (00:00:10 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1701,27 +1701,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:04 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:05 Â± 00:00:06)</t>
         </is>
       </c>
     </row>
@@ -1957,27 +1957,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2190,27 +2190,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2254,27 +2254,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2510,27 +2510,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2741,30 +2741,20 @@
           <t>autokeras</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43</v>
+      </c>
+      <c r="E4" t="n">
+        <v>43</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2805,30 +2795,20 @@
           <t>autosklearn</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B6" t="n">
+        <v>71</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -3051,20 +3031,30 @@
           <t>mljar</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-1</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="15">
